--- a/biology/Médecine/1538_en_santé_et_médecine/1538_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1538_en_santé_et_médecine/1538_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1538_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1538_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1538 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1538_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1538_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Antoine Lecoq († 1550), maître régent, succède à Jean Tagault au décanat de la faculté de médecine de Paris[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Antoine Lecoq († 1550), maître régent, succède à Jean Tagault au décanat de la faculté de médecine de Paris.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1538_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1538_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vésale (1514-1564) participe à la production d'un ensemble de six grandes planches, les Tabulae Anatomicae sex, où l'on trouve une illustration du rete mirabile en relation avec le système vasculaire[2].
-Parution à Paris d'un ouvrage de Pierre Brissot (1478-1522) sur le traitement de la pleurésie intitulé Apologia de incisione venae in pleuritide morbo[3].
-Martin Grégoire[4], « médecin d'origine tourangelle et excellent helléniste », fait imprimer à Paris, chez Charlotte Guillard, veuve Chevallon, la Méthode thérapeutique de Galien dans la traduction latine de Thomas Linacre (1460-1524[5]), déjà éditée en 1530 par Guillaume Budé (fl. 1520--milieu du XVIe s.), docteur en médecine et praticien à Orléans[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vésale (1514-1564) participe à la production d'un ensemble de six grandes planches, les Tabulae Anatomicae sex, où l'on trouve une illustration du rete mirabile en relation avec le système vasculaire.
+Parution à Paris d'un ouvrage de Pierre Brissot (1478-1522) sur le traitement de la pleurésie intitulé Apologia de incisione venae in pleuritide morbo.
+Martin Grégoire, « médecin d'origine tourangelle et excellent helléniste », fait imprimer à Paris, chez Charlotte Guillard, veuve Chevallon, la Méthode thérapeutique de Galien dans la traduction latine de Thomas Linacre (1460-1524), déjà éditée en 1530 par Guillaume Budé (fl. 1520--milieu du XVIe s.), docteur en médecine et praticien à Orléans.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1538_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1538_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mathias de l'Obel (mort en 1616), médecin et botaniste flamand[7].
-Jacques Grévin (mort en 1570), médecin, homme de théâtre et poète français[8], auteur, en 1567, de  Deux livres des venins, auxquels il est amplement discouru des bêtes venimeuses, thériaques, poisons et contrepoisons[9].
-Guillaume de Baillou (mort en 1616), dont son petit neveu Jacques Thévart fera imprimer en 1635 à Paris, chez Jacob Quesnel, les Consiliorum medicinalium[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mathias de l'Obel (mort en 1616), médecin et botaniste flamand.
+Jacques Grévin (mort en 1570), médecin, homme de théâtre et poète français, auteur, en 1567, de  Deux livres des venins, auxquels il est amplement discouru des bêtes venimeuses, thériaques, poisons et contrepoisons.
+Guillaume de Baillou (mort en 1616), dont son petit neveu Jacques Thévart fera imprimer en 1635 à Paris, chez Jacob Quesnel, les Consiliorum medicinalium.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1538_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1538_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symphorien Champier (né en 1471), médecin lyonnais, a soigné en 1507 son cousin Bayard à Lyon, « pour sa fièvre quarte et les séquelles ulcéreuses d'une blessure au bras[11] ».
-Henricus  Urbanus (né en 1475), médecin et poète hessois, disciple de Nicolas Léonicène (1428-1524) en Italie, professeur à Erfurt et Marbourg en Allemagne, père du naturaliste Valerius Cordus (1515-1544[12]).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symphorien Champier (né en 1471), médecin lyonnais, a soigné en 1507 son cousin Bayard à Lyon, « pour sa fièvre quarte et les séquelles ulcéreuses d'une blessure au bras ».
+Henricus  Urbanus (né en 1475), médecin et poète hessois, disciple de Nicolas Léonicène (1428-1524) en Italie, professeur à Erfurt et Marbourg en Allemagne, père du naturaliste Valerius Cordus (1515-1544).
 </t>
         </is>
       </c>
